--- a/biology/Zoologie/Amerotyphlops/Amerotyphlops.xlsx
+++ b/biology/Zoologie/Amerotyphlops/Amerotyphlops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amerotyphlops est un genre de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amerotyphlops est un genre de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 19 espèces de ce genre se rencontrent en Amérique.
 </t>
         </is>
       </c>
@@ -542,20 +556,22 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 décembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 décembre 2022) :
 Amerotyphlops amoipira (Rodrigues &amp; Juncá, 2002)
 Amerotyphlops arenensis Graboski et al., 2015
 Amerotyphlops brongersmianus (Vanzolini, 1976)
-Amerotyphlops caetanoi Graboski et al., 2022[3]
+Amerotyphlops caetanoi Graboski et al., 2022
 Amerotyphlops costaricensis (Jimenez &amp; Savage, 1963)
-Amerotyphlops illusorium Graboski et al., 2022[3]
+Amerotyphlops illusorium Graboski et al., 2022
 Amerotyphlops lehneri (Roux, 1926)
-Amerotyphlops martis Graboski et al., 2022[3]
+Amerotyphlops martis Graboski et al., 2022
 Amerotyphlops microstomus (Cope, 1866)
 Amerotyphlops minuisquamus (Dixon, 1979)
-Amerotyphlops montanum Graboski et al., 2022[3]
+Amerotyphlops montanum Graboski et al., 2022
 Amerotyphlops paucisquamus (Dixon, 1979)
 Amerotyphlops reticulatus (Linnaeus, 1758)
 Amerotyphlops stadelmani (Schmidt, 1936)
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hedges, Marion, Lipp, Marin &amp; Vidal, 2014 : A taxonomic framework for typhlopid snakes from the Caribbean and other regions (Reptilia, Squamata). Caribbean Herpetology vol. 49, p. 1–61 (texte intégral).</t>
         </is>
